--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,19 +34,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -58,8 +48,8 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -358,7 +348,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -367,319 +357,296 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>6</v>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Before Breakfast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> After Breakfast</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Before Lunch</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> After Lunch</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Before Dinner</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> After Dinner</t>
+        </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Date</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Before Breakfast</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> After Breakfast</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Before Lunch</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> After Lunch</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Before Dinner</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> After Dinner</t>
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01-01-2020</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 79,29</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 59.43</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 80.65</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 61.76</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 54.40</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 80.65</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 01-01-2020</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 79,29</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 02-01-2020</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 29.60</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 62.42</t>
+        </is>
+      </c>
+      <c r="D3" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> 59.43</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 62.42</t>
+        </is>
+      </c>
+      <c r="F3" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 82.63</t>
+        </is>
+      </c>
+      <c r="G3" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 62.42</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 03-01-2020</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 82.63</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 54.40</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 82.63</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 59.43</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 59.43</t>
+        </is>
+      </c>
+      <c r="G4" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 61.76</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 04-01-2020</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> 80.65</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 82.63</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> 61.76</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 53.47</t>
+        </is>
+      </c>
+      <c r="F5" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 48.92</t>
+        </is>
+      </c>
+      <c r="G5" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 59.43</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 05-01-2020</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 61.76</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 53.47</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> 54.40</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="E6" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> 80.65</t>
         </is>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 02-01-2020</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 29.60</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+      <c r="F6" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> 62.42</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="G6" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 54.40</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 06-01-2020</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 62.42</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 61.76</t>
+        </is>
+      </c>
+      <c r="D7" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 48.92</t>
+        </is>
+      </c>
+      <c r="E7" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 48,92</t>
+        </is>
+      </c>
+      <c r="F7" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 80.65</t>
+        </is>
+      </c>
+      <c r="G7" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 53.47</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 07-01-2020</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> 59.43</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 48,92</t>
+        </is>
+      </c>
+      <c r="D8" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> 62.42</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 82.63</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 62.42</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 03-01-2020</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 82.63</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+      <c r="E8" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> 54.40</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 82.63</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 59.43</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 59.43</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 61.76</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 04-01-2020</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 80.65</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 82.63</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 61.76</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+      <c r="F8" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> 53.47</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 48.92</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 59.43</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 05-01-2020</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 61.76</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 53.47</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 54.40</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 80.65</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 62.42</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 54.40</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 06-01-2020</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 62.42</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 61.76</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 48.92</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 48,92</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 80.65</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 53.47</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 07-01-2020</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 59.43</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 48,92</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 62.42</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 54.40</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 53.47</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
+      <c r="G8" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> 82.63</t>
         </is>

--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -396,259 +396,272 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 01-01-2020</t>
+          <t xml:space="preserve"> Ot /OL'20</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 79,29</t>
+          <t xml:space="preserve"> +9. LY</t>
         </is>
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 59.43</t>
+          <t xml:space="preserve"> 59, 44</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 80.65</t>
+          <t xml:space="preserve"> yO. 65</t>
         </is>
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 61.76</t>
+          <t xml:space="preserve"> sl té</t>
         </is>
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 54.40</t>
+          <t xml:space="preserve"> KA AC)</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 80.65</t>
+          <t xml:space="preserve"> aa
+«O
+W&gt;</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 02-01-2020</t>
+          <t xml:space="preserve"> OL!
+‘01 {20</t>
         </is>
       </c>
       <c r="B3" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 29.60</t>
+          <t xml:space="preserve"> 29 EC</t>
         </is>
       </c>
       <c r="C3" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 62.42</t>
+          <t xml:space="preserve"> E263</t>
         </is>
       </c>
       <c r="D3" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 59.43</t>
+          <t xml:space="preserve"> L443</t>
         </is>
       </c>
       <c r="E3" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 62.42</t>
+          <t xml:space="preserve"> Q)
+yy
+A&gt;</t>
         </is>
       </c>
       <c r="F3" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 82.63</t>
+          <t xml:space="preserve"> F2.64</t>
         </is>
       </c>
       <c r="G3" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 62.42</t>
+          <t xml:space="preserve"> OL?</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 03-01-2020</t>
+          <t xml:space="preserve"> C4/O1 20</t>
         </is>
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 82.63</t>
+          <t xml:space="preserve"> §2.. 63</t>
         </is>
       </c>
       <c r="C4" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 54.40</t>
+          <t xml:space="preserve"> 5” 40</t>
         </is>
       </c>
       <c r="D4" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 82.63</t>
+          <t xml:space="preserve"> 4</t>
         </is>
       </c>
       <c r="E4" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 59.43</t>
+          <t xml:space="preserve"> 59. 43</t>
         </is>
       </c>
       <c r="F4" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 59.43</t>
+          <t xml:space="preserve"> 5A. 4 +</t>
         </is>
       </c>
       <c r="G4" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 61.76</t>
+          <t xml:space="preserve"> CA. +6</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 04-01-2020</t>
+          <t xml:space="preserve"> OL, [01, 20</t>
         </is>
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 80.65</t>
+          <t xml:space="preserve"> sO. ©5</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 82.63</t>
+          <t xml:space="preserve"> 62.64</t>
         </is>
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 61.76</t>
+          <t xml:space="preserve"> G1. ©</t>
         </is>
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 53.47</t>
+          <t xml:space="preserve"> Random</t>
         </is>
       </c>
       <c r="F5" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 48.92</t>
+          <t xml:space="preserve"> Text</t>
         </is>
       </c>
       <c r="G5" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 59.43</t>
+          <t xml:space="preserve"> 549 Lk</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05-01-2020</t>
+          <t xml:space="preserve"> 05 01[70</t>
         </is>
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 61.76</t>
+          <t xml:space="preserve"> GL .+G6</t>
         </is>
       </c>
       <c r="C6" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 53.47</t>
+          <t xml:space="preserve"> 3 4F</t>
         </is>
       </c>
       <c r="D6" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 54.40</t>
+          <t xml:space="preserve"> bh. 40</t>
         </is>
       </c>
       <c r="E6" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 80.65</t>
+          <t xml:space="preserve"> 1 A:
+-</t>
         </is>
       </c>
       <c r="F6" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 62.42</t>
+          <t xml:space="preserve"> £0.65</t>
         </is>
       </c>
       <c r="G6" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 54.40</t>
+          <t xml:space="preserve"> Ah
+oO</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06-01-2020</t>
+          <t xml:space="preserve"> 06/01/20</t>
         </is>
       </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 62.42</t>
+          <t xml:space="preserve"> 62 .L)</t>
         </is>
       </c>
       <c r="C7" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 61.76</t>
+          <t xml:space="preserve"> +6</t>
         </is>
       </c>
       <c r="D7" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 48.92</t>
+          <t xml:space="preserve"> on K
+9g</t>
         </is>
       </c>
       <c r="E7" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 48,92</t>
+          <t xml:space="preserve"> FO. Ob</t>
         </is>
       </c>
       <c r="F7" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 80.65</t>
+          <t xml:space="preserve"> J)
+1
+.
+f
+4
+v</t>
         </is>
       </c>
       <c r="G7" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 53.47</t>
+          <t xml:space="preserve"> L5-6 F</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 07-01-2020</t>
+          <t xml:space="preserve"> OF/O1/20</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 59.43</t>
+          <t xml:space="preserve"> 59 43</t>
         </is>
       </c>
       <c r="C8" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 48,92</t>
+          <t xml:space="preserve"> £8. 99</t>
         </is>
       </c>
       <c r="D8" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 62.42</t>
+          <t xml:space="preserve"> OL. 42</t>
         </is>
       </c>
       <c r="E8" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 54.40</t>
+          <t xml:space="preserve"> Li&amp; 92.</t>
         </is>
       </c>
       <c r="F8" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 53.47</t>
+          <t xml:space="preserve"> 2.63</t>
         </is>
       </c>
       <c r="G8" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 82.63</t>
+          <t xml:space="preserve"> §. 3]</t>
         </is>
       </c>
     </row>

--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -348,7 +348,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -359,309 +359,514 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Date</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Before Breakfast</t>
+          <t xml:space="preserve"> Before</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t xml:space="preserve"> Breakfast</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t xml:space="preserve"> After Breakfast</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Before Lunch</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> After Lunch</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Before Dinner</t>
+          <t xml:space="preserve"> Before</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> After Dinner</t>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ot /OL'20</t>
+          <t xml:space="preserve"> x0</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +9. LY</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 59, 44</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> yO. 65</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> sl té</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> KA AC)</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> aa
-«O
-W&gt;</t>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H2" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I2" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="J2" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="K2" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> OL!
-‘01 {20</t>
+          <t xml:space="preserve"> O41 Oar</t>
         </is>
       </c>
       <c r="B3" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 29 EC</t>
+          <t xml:space="preserve"> 4O)</t>
         </is>
       </c>
       <c r="C3" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> E263</t>
+          <t xml:space="preserve"> 29</t>
         </is>
       </c>
       <c r="D3" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> L443</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="E3" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Q)
-yy
-A&gt;</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F3" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> F2.64</t>
+          <t xml:space="preserve"> £0</t>
         </is>
       </c>
       <c r="G3" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> OL?</t>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H3" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> t&amp;</t>
+        </is>
+      </c>
+      <c r="I3" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="J3" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ae AL)</t>
+        </is>
+      </c>
+      <c r="K3" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FO 65</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> C4/O1 20</t>
+          <t xml:space="preserve"> 2</t>
         </is>
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> §2.. 63</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="C4" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 5” 40</t>
+          <t xml:space="preserve"> 60</t>
         </is>
       </c>
       <c r="D4" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="E4" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 59. 43</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F4" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 5A. 4 +</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G4" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CA. +6</t>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H4" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I4" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="J4" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="K4" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> OL, [01, 20</t>
+          <t xml:space="preserve"> ie ZO</t>
         </is>
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> sO. ©5</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 62.64</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> G1. ©</t>
+          <t xml:space="preserve"> 40</t>
         </is>
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Random</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F5" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Text</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G5" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 549 Lk</t>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H5" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 59 4</t>
+        </is>
+      </c>
+      <c r="I5" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="J5" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 54 Ly Fe</t>
+        </is>
+      </c>
+      <c r="K5" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> oA. +6</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05 01[70</t>
+          <t xml:space="preserve"> OL 1 | 20</t>
         </is>
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> GL .+G6</t>
+          <t xml:space="preserve"> ‘O</t>
         </is>
       </c>
       <c r="C6" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3 4F</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D6" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> bh. 40</t>
+          <t xml:space="preserve"> 64</t>
         </is>
       </c>
       <c r="E6" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1 A:
--</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F6" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> £0.65</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G6" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ah
-oO</t>
+          <t xml:space="preserve"> +6</t>
+        </is>
+      </c>
+      <c r="H6" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Random</t>
+        </is>
+      </c>
+      <c r="I6" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="J6" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tex</t>
+        </is>
+      </c>
+      <c r="K6" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06/01/20</t>
+          <t xml:space="preserve"> O4 |</t>
         </is>
       </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 62 .L)</t>
+          <t xml:space="preserve"> Gt</t>
         </is>
       </c>
       <c r="C7" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +6</t>
+          <t xml:space="preserve"> AG</t>
         </is>
       </c>
       <c r="D7" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> on K
-9g</t>
+          <t xml:space="preserve"> A</t>
         </is>
       </c>
       <c r="E7" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FO. Ob</t>
+          <t xml:space="preserve"> -s</t>
         </is>
       </c>
       <c r="F7" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> J)
-1
-.
-f
-4
-v</t>
+          <t xml:space="preserve"> pe)
+Ly</t>
         </is>
       </c>
       <c r="G7" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> L5-6 F</t>
+          <t xml:space="preserve"> 40)</t>
+        </is>
+      </c>
+      <c r="H7" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> A</t>
+        </is>
+      </c>
+      <c r="I7" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4</t>
+        </is>
+      </c>
+      <c r="J7" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FQ</t>
+        </is>
+      </c>
+      <c r="K7" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> a</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> OF/O1/20</t>
+          <t xml:space="preserve"> BB /6 VS</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 59 43</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="C8" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> £8. 99</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D8" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> OL. 42</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="E8" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Li&amp; 92.</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F8" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2.63</t>
+          <t xml:space="preserve"> AK</t>
         </is>
       </c>
       <c r="G8" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> §. 3]</t>
+          <t xml:space="preserve"> QB?</t>
+        </is>
+      </c>
+      <c r="H8" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> fO</t>
+        </is>
+      </c>
+      <c r="I8" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="J8" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 53</t>
+        </is>
+      </c>
+      <c r="K8" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> b- +</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> OF [/O1L[20</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 59</t>
+        </is>
+      </c>
+      <c r="C9" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D9" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AS</t>
+        </is>
+      </c>
+      <c r="E9" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> he</t>
+        </is>
+      </c>
+      <c r="F9" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G9" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H9" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LS</t>
+        </is>
+      </c>
+      <c r="I9" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="J9" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 64</t>
+        </is>
+      </c>
+      <c r="K9" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 54</t>
         </is>
       </c>
     </row>

--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -348,7 +348,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -359,514 +359,303 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> Date</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Before</t>
+          <t xml:space="preserve"> Before Breakfast</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Breakfast</t>
+          <t xml:space="preserve"> After Breakfast</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> After Breakfast</t>
+          <t xml:space="preserve"> Before Lunch</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> After Lunch</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Before</t>
+          <t xml:space="preserve"> Before Dinner</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> After Dinner</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> x0</t>
+          <t xml:space="preserve"> O4/OL/30</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> 49. 29</t>
         </is>
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> 59. 44</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> yO. 65</t>
         </is>
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> sl té</t>
         </is>
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> KA AC)</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="H2" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I2" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="J2" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="K2" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> TO.¢6S</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> O41 Oar</t>
+          <t xml:space="preserve"> 02 {04/20</t>
         </is>
       </c>
       <c r="B3" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4O)</t>
+          <t xml:space="preserve"> 29.€C</t>
         </is>
       </c>
       <c r="C3" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 29</t>
+          <t xml:space="preserve"> at)
+|
+iY</t>
         </is>
       </c>
       <c r="D3" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> L443</t>
         </is>
       </c>
       <c r="E3" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> CN
+Y
+CY)</t>
         </is>
       </c>
       <c r="F3" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> £0</t>
+          <t xml:space="preserve"> ol)
+F2.G</t>
         </is>
       </c>
       <c r="G3" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="H3" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> t&amp;</t>
-        </is>
-      </c>
-      <c r="I3" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="J3" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Ae AL)</t>
-        </is>
-      </c>
-      <c r="K3" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> FO 65</t>
+          <t xml:space="preserve"> OL U2</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2</t>
+          <t xml:space="preserve"> C4/OL{20</t>
         </is>
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> §2.. 63</t>
         </is>
       </c>
       <c r="C4" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 60</t>
+          <t xml:space="preserve"> 54 40</t>
         </is>
       </c>
       <c r="D4" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> 82.64</t>
         </is>
       </c>
       <c r="E4" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> 59. 43</t>
         </is>
       </c>
       <c r="F4" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> In. Ly
+~</t>
         </is>
       </c>
       <c r="G4" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="H4" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I4" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="J4" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="K4" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> A 4G</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ie ZO</t>
+          <t xml:space="preserve"> 0L1 [01] 20</t>
         </is>
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> ¥0. ©5</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> 62
+62</t>
         </is>
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 40</t>
+          <t xml:space="preserve"> G1. +6</t>
         </is>
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> Random</t>
         </is>
       </c>
       <c r="F5" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> Text</t>
         </is>
       </c>
       <c r="G5" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="H5" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 59 4</t>
-        </is>
-      </c>
-      <c r="I5" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="J5" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 54 Ly Fe</t>
-        </is>
-      </c>
-      <c r="K5" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> oA. +6</t>
+          <t xml:space="preserve"> 549 Lk</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> OL 1 | 20</t>
+          <t xml:space="preserve"> 05/01/20</t>
         </is>
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ‘O</t>
+          <t xml:space="preserve"> GL -.46</t>
         </is>
       </c>
       <c r="C6" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> 3 4F</t>
         </is>
       </c>
       <c r="D6" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 64</t>
+          <t xml:space="preserve"> bh. 40</t>
         </is>
       </c>
       <c r="E6" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> 55.45%</t>
         </is>
       </c>
       <c r="F6" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> FO.eE4</t>
         </is>
       </c>
       <c r="G6" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +6</t>
-        </is>
-      </c>
-      <c r="H6" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Random</t>
-        </is>
-      </c>
-      <c r="I6" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="J6" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Tex</t>
-        </is>
-      </c>
-      <c r="K6" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> AL.2%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> O4 |</t>
+          <t xml:space="preserve"> 06/01/20</t>
         </is>
       </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gt</t>
+          <t xml:space="preserve"> 62 ul</t>
         </is>
       </c>
       <c r="C7" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AG</t>
+          <t xml:space="preserve"> +6</t>
         </is>
       </c>
       <c r="D7" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> A</t>
+          <t xml:space="preserve"> 4. SZ</t>
         </is>
       </c>
       <c r="E7" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -s</t>
+          <t xml:space="preserve"> §O. &amp;4</t>
         </is>
       </c>
       <c r="F7" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> pe)
-Ly</t>
+          <t xml:space="preserve"> 562.4]</t>
         </is>
       </c>
       <c r="G7" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 40)</t>
-        </is>
-      </c>
-      <c r="H7" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> A</t>
-        </is>
-      </c>
-      <c r="I7" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 4</t>
-        </is>
-      </c>
-      <c r="J7" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> FQ</t>
-        </is>
-      </c>
-      <c r="K7" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> a</t>
+          <t xml:space="preserve"> L5-6 F</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BB /6 VS</t>
+          <t xml:space="preserve"> OF/O4L[20</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> 59.43</t>
         </is>
       </c>
       <c r="C8" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> AE, AI</t>
         </is>
       </c>
       <c r="D8" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> Of. 42</t>
         </is>
       </c>
       <c r="E8" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> L&amp; 97</t>
         </is>
       </c>
       <c r="F8" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AK</t>
+          <t xml:space="preserve"> 2.63</t>
         </is>
       </c>
       <c r="G8" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> QB?</t>
-        </is>
-      </c>
-      <c r="H8" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> fO</t>
-        </is>
-      </c>
-      <c r="I8" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="J8" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 53</t>
-        </is>
-      </c>
-      <c r="K8" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> b- +</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> OF [/O1L[20</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 59</t>
-        </is>
-      </c>
-      <c r="C9" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D9" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> AS</t>
-        </is>
-      </c>
-      <c r="E9" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> he</t>
-        </is>
-      </c>
-      <c r="F9" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="G9" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="H9" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> LS</t>
-        </is>
-      </c>
-      <c r="I9" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="J9" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 64</t>
-        </is>
-      </c>
-      <c r="K9" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 54</t>
+          <t xml:space="preserve"> §). 3]</t>
         </is>
       </c>
     </row>

--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -44,18 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
+  <cellXfs count="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -348,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -357,309 +354,265 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Date</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Before Breakfast</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> After Breakfast</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Before Lunch</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> After Lunch</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Before Dinner</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> After Dinner</t>
+      <c r="A1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 0401/202</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 44.20</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> .2.</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 10.3</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.9</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 31.</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 43.6</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> O4/OL/30</t>
-        </is>
-      </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 49. 29</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 59. 44</t>
-        </is>
-      </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> yO. 65</t>
-        </is>
-      </c>
-      <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> sl té</t>
-        </is>
-      </c>
-      <c r="F2" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> KA AC)</t>
-        </is>
-      </c>
-      <c r="G2" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> TO.¢6S</t>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 020420</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 29.60</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 93.64</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 34.5</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> .</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 5.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 0.3</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 02 {04/20</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 29.€C</t>
-        </is>
-      </c>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> at)
-|
-iY</t>
-        </is>
-      </c>
-      <c r="D3" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> L443</t>
-        </is>
-      </c>
-      <c r="E3" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> CN
-Y
-CY)</t>
-        </is>
-      </c>
-      <c r="F3" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> ol)
-F2.G</t>
-        </is>
-      </c>
-      <c r="G3" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> OL U2</t>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 03/04/20</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 02.63</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ..24</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 48.91</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 0.07</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> .23</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> C4/OL{20</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> §2.. 63</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 54 40</t>
-        </is>
-      </c>
-      <c r="D4" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 82.64</t>
-        </is>
-      </c>
-      <c r="E4" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 59. 43</t>
-        </is>
-      </c>
-      <c r="F4" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> In. Ly
-~</t>
-        </is>
-      </c>
-      <c r="G4" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> A 4G</t>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 04102/20</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 0.65</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 45.61</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 40.14</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 9.10</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> .42</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> .24</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 0L1 [01] 20</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> ¥0. ©5</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 62
-62</t>
-        </is>
-      </c>
-      <c r="D5" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> G1. +6</t>
-        </is>
-      </c>
-      <c r="E5" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Random</t>
-        </is>
-      </c>
-      <c r="F5" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Text</t>
-        </is>
-      </c>
-      <c r="G5" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 549 Lk</t>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 05/01/20</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 61.76</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 8.12</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 45.6</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 94.</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 23.</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> .32</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 05/01/20</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> GL -.46</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3 4F</t>
-        </is>
-      </c>
-      <c r="D6" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> bh. 40</t>
-        </is>
-      </c>
-      <c r="E6" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 55.45%</t>
-        </is>
-      </c>
-      <c r="F6" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> FO.eE4</t>
-        </is>
-      </c>
-      <c r="G6" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> AL.2%</t>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 06/01/20</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ..34</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 34.56</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 89.410</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.69</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 06/01/20</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 62 ul</t>
-        </is>
-      </c>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> +6</t>
-        </is>
-      </c>
-      <c r="D7" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 4. SZ</t>
-        </is>
-      </c>
-      <c r="E7" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> §O. &amp;4</t>
-        </is>
-      </c>
-      <c r="F7" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 562.4]</t>
-        </is>
-      </c>
-      <c r="G7" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> L5-6 F</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> OF/O4L[20</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="inlineStr">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 0/0120</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t xml:space="preserve"> 59.43</t>
         </is>
       </c>
-      <c r="C8" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> AE, AI</t>
-        </is>
-      </c>
-      <c r="D8" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Of. 42</t>
-        </is>
-      </c>
-      <c r="E8" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> L&amp; 97</t>
-        </is>
-      </c>
-      <c r="F8" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2.63</t>
-        </is>
-      </c>
-      <c r="G8" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> §). 3]</t>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 8.91</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 23.45</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 20.41</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 56.7</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>